--- a/TAP_POM_Framework/data/TC0027.xlsx
+++ b/TAP_POM_Framework/data/TC0027.xlsx
@@ -102,18 +102,12 @@
     <t>TPMU 2</t>
   </si>
   <si>
-    <t>PCU</t>
-  </si>
-  <si>
     <t>Air Canada</t>
   </si>
   <si>
     <t>Arcade &amp; Action</t>
   </si>
   <si>
-    <t>Apps</t>
-  </si>
-  <si>
     <t>Afar</t>
   </si>
   <si>
@@ -133,6 +127,12 @@
   </si>
   <si>
     <t>app_admin@ltts.com</t>
+  </si>
+  <si>
+    <t>TPMU</t>
+  </si>
+  <si>
+    <t>Application</t>
   </si>
 </sst>
 </file>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -576,19 +576,19 @@
         <v>25</v>
       </c>
       <c r="I2">
-        <v>123.919</v>
+        <v>125</v>
       </c>
       <c r="J2">
-        <v>187.67500000000001</v>
+        <v>789</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N2" t="s">
         <v>25</v>
@@ -597,31 +597,31 @@
         <v>25</v>
       </c>
       <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
       <c r="V2">
-        <v>1204</v>
+        <v>10</v>
       </c>
       <c r="W2">
         <v>2014</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
